--- a/GenderGap_Data/gendergap_06_14.xlsx
+++ b/GenderGap_Data/gendergap_06_14.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="21820" yWindow="11120" windowWidth="26960" windowHeight="16960" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="20560" yWindow="10960" windowWidth="26960" windowHeight="16960" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="gendergap_06_14.csv" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="40">
   <si>
     <t>United States</t>
   </si>
@@ -137,40 +137,13 @@
     <t>score</t>
   </si>
   <si>
-    <t>23/115</t>
-  </si>
-  <si>
     <t>0.00 = inequality, 1.00 = equality</t>
   </si>
   <si>
-    <t>31/128</t>
-  </si>
-  <si>
-    <t>27/130</t>
-  </si>
-  <si>
     <t>gdp(billions$)</t>
   </si>
   <si>
     <t>pop(million)</t>
-  </si>
-  <si>
-    <t>31/134</t>
-  </si>
-  <si>
-    <t>19/134</t>
-  </si>
-  <si>
-    <t>17/135</t>
-  </si>
-  <si>
-    <t>22/135</t>
-  </si>
-  <si>
-    <t>23/136</t>
-  </si>
-  <si>
-    <t>20/142</t>
   </si>
 </sst>
 </file>
@@ -178,7 +151,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -249,8 +222,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="71">
+  <cellStyleXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -339,23 +314,23 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="71">
+  <cellStyles count="73">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -391,6 +366,7 @@
     <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -426,6 +402,7 @@
     <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -758,7 +735,7 @@
   <dimension ref="A1:M39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27:M35"/>
+      <selection activeCell="D2" sqref="D2:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -790,10 +767,10 @@
         <v>35</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>29</v>
@@ -1860,7 +1837,7 @@
     </row>
     <row r="39" spans="1:13">
       <c r="A39" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39" s="4"/>
       <c r="C39" s="5"/>
@@ -1892,7 +1869,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1905,10 +1882,10 @@
         <v>35</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>29</v>
@@ -1936,8 +1913,9 @@
       <c r="A2" s="1">
         <v>2006</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>37</v>
+      <c r="B2" s="4">
+        <f xml:space="preserve"> 23/115</f>
+        <v>0.2</v>
       </c>
       <c r="C2" s="1">
         <v>298.2</v>
@@ -1971,8 +1949,9 @@
       <c r="A3" s="1">
         <v>2007</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>39</v>
+      <c r="B3" s="4">
+        <f xml:space="preserve"> 31/128</f>
+        <v>0.2421875</v>
       </c>
       <c r="C3" s="1">
         <v>296.41000000000003</v>
@@ -2006,8 +1985,9 @@
       <c r="A4" s="1">
         <v>2008</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>40</v>
+      <c r="B4" s="4">
+        <f xml:space="preserve"> 27/130</f>
+        <v>0.2076923076923077</v>
       </c>
       <c r="C4" s="1">
         <v>301.62</v>
@@ -2041,8 +2021,9 @@
       <c r="A5" s="1">
         <v>2009</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>43</v>
+      <c r="B5" s="4">
+        <f xml:space="preserve"> 31/134</f>
+        <v>0.23134328358208955</v>
       </c>
       <c r="C5" s="1">
         <v>301.62</v>
@@ -2076,8 +2057,9 @@
       <c r="A6" s="1">
         <v>2010</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>44</v>
+      <c r="B6" s="4">
+        <f xml:space="preserve"> 19/134</f>
+        <v>0.1417910447761194</v>
       </c>
       <c r="C6" s="1">
         <v>304.06</v>
@@ -2111,8 +2093,9 @@
       <c r="A7" s="1">
         <v>2011</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>45</v>
+      <c r="B7" s="4">
+        <f xml:space="preserve"> 17/135</f>
+        <v>0.12592592592592591</v>
       </c>
       <c r="C7" s="1">
         <v>309.70999999999998</v>
@@ -2146,8 +2129,9 @@
       <c r="A8" s="1">
         <v>2012</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>46</v>
+      <c r="B8" s="4">
+        <f xml:space="preserve"> 22/135</f>
+        <v>0.16296296296296298</v>
       </c>
       <c r="C8" s="1">
         <v>311.58999999999997</v>
@@ -2181,8 +2165,9 @@
       <c r="A9" s="1">
         <v>2013</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>47</v>
+      <c r="B9" s="4">
+        <f xml:space="preserve"> 23/136</f>
+        <v>0.16911764705882354</v>
       </c>
       <c r="C9" s="1">
         <v>311.58999999999997</v>
@@ -2216,8 +2201,9 @@
       <c r="A10" s="1">
         <v>2014</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>48</v>
+      <c r="B10" s="4">
+        <f xml:space="preserve"> 20/142</f>
+        <v>0.14084507042253522</v>
       </c>
       <c r="C10" s="1">
         <v>316.63</v>
@@ -2263,7 +2249,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="A1:K10"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2276,10 +2262,10 @@
         <v>35</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E1" s="10" t="s">
         <v>29</v>

--- a/GenderGap_Data/gendergap_06_14.xlsx
+++ b/GenderGap_Data/gendergap_06_14.xlsx
@@ -4,12 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="20560" yWindow="10960" windowWidth="26960" windowHeight="16960" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="21800" yWindow="7980" windowWidth="28140" windowHeight="20480" tabRatio="500" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="gendergap_06_14.csv" sheetId="1" r:id="rId1"/>
     <sheet name="gapUS_06_14.csv" sheetId="2" r:id="rId2"/>
     <sheet name="gapCN_06_14.csv" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">gendergap_06_14.csv!$1:$1</definedName>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="48">
   <si>
     <t>United States</t>
   </si>
@@ -144,6 +146,30 @@
   </si>
   <si>
     <t>pop(million)</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>rank_n</t>
+  </si>
+  <si>
+    <t>GDP</t>
+  </si>
+  <si>
+    <t>Population</t>
+  </si>
+  <si>
+    <t>Rank</t>
+  </si>
+  <si>
+    <t>GDP/capita</t>
+  </si>
+  <si>
+    <t>values</t>
   </si>
 </sst>
 </file>
@@ -198,7 +224,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -221,8 +247,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="73">
+  <cellStyleXfs count="155">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -296,8 +333,90 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -329,8 +448,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="73">
+  <cellStyles count="155">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -367,6 +497,47 @@
     <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -403,6 +574,47 @@
     <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1869,7 +2081,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+      <selection sqref="A1:K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2246,15 +2458,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:W48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:23">
       <c r="A1" s="10" t="s">
         <v>28</v>
       </c>
@@ -2288,8 +2503,28 @@
       <c r="K1" s="10" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="N1" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="O1" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
+      <c r="W1" s="10"/>
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" s="5">
         <v>2006</v>
       </c>
@@ -2324,8 +2559,24 @@
       <c r="K2" s="5">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="L2" s="12">
+        <f xml:space="preserve"> (1-B2)</f>
+        <v>0.45217391304347831</v>
+      </c>
+      <c r="M2">
+        <f xml:space="preserve"> C2/2500</f>
+        <v>0.52632000000000001</v>
+      </c>
+      <c r="N2">
+        <f xml:space="preserve"> D2/5000</f>
+        <v>0.44496199999999997</v>
+      </c>
+      <c r="O2">
+        <f xml:space="preserve"> E2/15000</f>
+        <v>0.48026666666666668</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" s="5">
         <v>2007</v>
       </c>
@@ -2360,8 +2611,24 @@
       <c r="K3" s="5">
         <v>23</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="L3" s="12">
+        <f t="shared" ref="L3:L10" si="0" xml:space="preserve"> (1-B3)</f>
+        <v>0.4296875</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M10" si="1" xml:space="preserve"> C3/2500</f>
+        <v>0.52180000000000004</v>
+      </c>
+      <c r="N3">
+        <f t="shared" ref="N3:N10" si="2" xml:space="preserve"> D3/5000</f>
+        <v>0.37978600000000001</v>
+      </c>
+      <c r="O3">
+        <f t="shared" ref="O3:O10" si="3" xml:space="preserve"> E3/15000</f>
+        <v>0.40079999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" s="5">
         <v>2008</v>
       </c>
@@ -2396,8 +2663,24 @@
       <c r="K4" s="5">
         <v>23</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="L4" s="12">
+        <f t="shared" si="0"/>
+        <v>0.56153846153846154</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="1"/>
+        <v>0.52799200000000002</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="2"/>
+        <v>0.41918999999999995</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="3"/>
+        <v>0.30006666666666665</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" s="5">
         <v>2009</v>
       </c>
@@ -2432,8 +2715,24 @@
       <c r="K5" s="5">
         <v>23</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="L5" s="12">
+        <f t="shared" si="0"/>
+        <v>0.55223880597014929</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="1"/>
+        <v>0.52732400000000001</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="2"/>
+        <v>0.47753599999999996</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="3"/>
+        <v>0.33893333333333331</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6" s="5">
         <v>2010</v>
       </c>
@@ -2468,8 +2767,24 @@
       <c r="K6" s="5">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="L6" s="12">
+        <f t="shared" si="0"/>
+        <v>0.54477611940298509</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="1"/>
+        <v>0.529864</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="2"/>
+        <v>0.52051400000000003</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="3"/>
+        <v>0.41333333333333333</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7" s="5">
         <v>2011</v>
       </c>
@@ -2504,8 +2819,24 @@
       <c r="K7" s="5">
         <v>23</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="L7" s="12">
+        <f t="shared" si="0"/>
+        <v>0.54814814814814816</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="1"/>
+        <v>0.53532000000000002</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="2"/>
+        <v>0.64861400000000002</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="3"/>
+        <v>0.45400000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" s="5">
         <v>2012</v>
       </c>
@@ -2540,8 +2871,24 @@
       <c r="K8" s="5">
         <v>23</v>
       </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="L8" s="12">
+        <f t="shared" si="0"/>
+        <v>0.48888888888888893</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="1"/>
+        <v>0.53765200000000002</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="2"/>
+        <v>0.64920200000000006</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="3"/>
+        <v>0.45440000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9" s="5">
         <v>2013</v>
       </c>
@@ -2576,8 +2923,24 @@
       <c r="K9" s="5">
         <v>23</v>
       </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="L9" s="12">
+        <f t="shared" si="0"/>
+        <v>0.49264705882352944</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="1"/>
+        <v>0.53765200000000002</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="2"/>
+        <v>0.70957799999999993</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="3"/>
+        <v>0.49453333333333332</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
       <c r="A10" s="5">
         <v>2014</v>
       </c>
@@ -2611,6 +2974,1261 @@
       </c>
       <c r="K10" s="5">
         <v>25</v>
+      </c>
+      <c r="L10" s="12">
+        <f t="shared" si="0"/>
+        <v>0.38732394366197187</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="1"/>
+        <v>0.54295199999999999</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="2"/>
+        <v>0.9728</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="3"/>
+        <v>0.71706666666666663</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
+      <c r="A12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
+      <c r="A13" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="4">
+        <f>63/115</f>
+        <v>0.54782608695652169</v>
+      </c>
+      <c r="C13" s="5">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
+      <c r="A14" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="4">
+        <f xml:space="preserve"> 73/128</f>
+        <v>0.5703125</v>
+      </c>
+      <c r="C14" s="5">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
+      <c r="A15" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="4">
+        <f xml:space="preserve"> 57/130</f>
+        <v>0.43846153846153846</v>
+      </c>
+      <c r="C15" s="5">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
+      <c r="A16" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="4">
+        <f xml:space="preserve"> 60/134</f>
+        <v>0.44776119402985076</v>
+      </c>
+      <c r="C16" s="5">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="4">
+        <f xml:space="preserve"> 61/134</f>
+        <v>0.45522388059701491</v>
+      </c>
+      <c r="C17" s="5">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="4">
+        <f xml:space="preserve"> 61/135</f>
+        <v>0.45185185185185184</v>
+      </c>
+      <c r="C18" s="5">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="4">
+        <f xml:space="preserve"> 69/135</f>
+        <v>0.51111111111111107</v>
+      </c>
+      <c r="C19" s="5">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="4">
+        <f>69/136</f>
+        <v>0.50735294117647056</v>
+      </c>
+      <c r="C20" s="5">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="4">
+        <f xml:space="preserve"> 87/142</f>
+        <v>0.61267605633802813</v>
+      </c>
+      <c r="C21" s="5">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22">
+        <v>0.52632000000000001</v>
+      </c>
+      <c r="C22" s="5">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23">
+        <v>0.52180000000000004</v>
+      </c>
+      <c r="C23" s="5">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24">
+        <v>0.52799200000000002</v>
+      </c>
+      <c r="C24" s="5">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25">
+        <v>0.52732400000000001</v>
+      </c>
+      <c r="C25" s="5">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26">
+        <v>0.529864</v>
+      </c>
+      <c r="C26" s="5">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27">
+        <v>0.53532000000000002</v>
+      </c>
+      <c r="C27" s="5">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28">
+        <v>0.53765200000000002</v>
+      </c>
+      <c r="C28" s="5">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29">
+        <v>0.53765200000000002</v>
+      </c>
+      <c r="C29" s="5">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30">
+        <v>0.54295199999999999</v>
+      </c>
+      <c r="C30" s="5">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31">
+        <v>0.44496199999999997</v>
+      </c>
+      <c r="C31" s="5">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32">
+        <v>0.37978600000000001</v>
+      </c>
+      <c r="C32" s="5">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33">
+        <v>0.41918999999999995</v>
+      </c>
+      <c r="C33" s="5">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34">
+        <v>0.47753599999999996</v>
+      </c>
+      <c r="C34" s="5">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35">
+        <v>0.52051400000000003</v>
+      </c>
+      <c r="C35" s="5">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36">
+        <v>0.64861400000000002</v>
+      </c>
+      <c r="C36" s="5">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37">
+        <v>0.64920200000000006</v>
+      </c>
+      <c r="C37" s="5">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38">
+        <v>0.70957799999999993</v>
+      </c>
+      <c r="C38" s="5">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39">
+        <v>0.9728</v>
+      </c>
+      <c r="C39" s="5">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B40">
+        <v>0.48026666666666668</v>
+      </c>
+      <c r="C40" s="5">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41">
+        <v>0.40079999999999999</v>
+      </c>
+      <c r="C41" s="5">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42">
+        <v>0.30006666666666665</v>
+      </c>
+      <c r="C42" s="5">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43">
+        <v>0.33893333333333331</v>
+      </c>
+      <c r="C43" s="5">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44">
+        <v>0.41333333333333333</v>
+      </c>
+      <c r="C44" s="5">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45">
+        <v>0.45400000000000001</v>
+      </c>
+      <c r="C45" s="5">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46">
+        <v>0.45440000000000003</v>
+      </c>
+      <c r="C46" s="5">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>0.49453333333333332</v>
+      </c>
+      <c r="C47" s="5">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>0.71706666666666663</v>
+      </c>
+      <c r="C48" s="5">
+        <v>2014</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="10.83203125" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="7">
+        <f>63/115</f>
+        <v>0.54782608695652169</v>
+      </c>
+      <c r="C2" s="5">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="7">
+        <f xml:space="preserve"> 73/128</f>
+        <v>0.5703125</v>
+      </c>
+      <c r="C3" s="5">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="7">
+        <f xml:space="preserve"> 57/130</f>
+        <v>0.43846153846153846</v>
+      </c>
+      <c r="C4" s="5">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="7">
+        <f xml:space="preserve"> 60/134</f>
+        <v>0.44776119402985076</v>
+      </c>
+      <c r="C5" s="5">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="7">
+        <f xml:space="preserve"> 61/134</f>
+        <v>0.45522388059701491</v>
+      </c>
+      <c r="C6" s="5">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="7">
+        <f xml:space="preserve"> 61/135</f>
+        <v>0.45185185185185184</v>
+      </c>
+      <c r="C7" s="5">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="7">
+        <f xml:space="preserve"> 69/135</f>
+        <v>0.51111111111111107</v>
+      </c>
+      <c r="C8" s="5">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="7">
+        <f>69/136</f>
+        <v>0.50735294117647056</v>
+      </c>
+      <c r="C9" s="5">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="7">
+        <f xml:space="preserve"> 87/142</f>
+        <v>0.61267605633802813</v>
+      </c>
+      <c r="C10" s="5">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="13">
+        <v>0.52632000000000001</v>
+      </c>
+      <c r="C11" s="5">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="13">
+        <v>0.52180000000000004</v>
+      </c>
+      <c r="C12" s="5">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="13">
+        <v>0.52799200000000002</v>
+      </c>
+      <c r="C13" s="5">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="13">
+        <v>0.52732400000000001</v>
+      </c>
+      <c r="C14" s="5">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="13">
+        <v>0.529864</v>
+      </c>
+      <c r="C15" s="5">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="13">
+        <v>0.53532000000000002</v>
+      </c>
+      <c r="C16" s="5">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="13">
+        <v>0.53765200000000002</v>
+      </c>
+      <c r="C17" s="5">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="13">
+        <v>0.53765200000000002</v>
+      </c>
+      <c r="C18" s="5">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="13">
+        <v>0.54295199999999999</v>
+      </c>
+      <c r="C19" s="5">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="13">
+        <v>0.44496199999999997</v>
+      </c>
+      <c r="C20" s="5">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="13">
+        <v>0.37978600000000001</v>
+      </c>
+      <c r="C21" s="5">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="13">
+        <v>0.41918999999999995</v>
+      </c>
+      <c r="C22" s="5">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="13">
+        <v>0.47753599999999996</v>
+      </c>
+      <c r="C23" s="5">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="13">
+        <v>0.52051400000000003</v>
+      </c>
+      <c r="C24" s="5">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" s="13">
+        <v>0.64861400000000002</v>
+      </c>
+      <c r="C25" s="5">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" s="13">
+        <v>0.64920200000000006</v>
+      </c>
+      <c r="C26" s="5">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" s="13">
+        <v>0.70957799999999993</v>
+      </c>
+      <c r="C27" s="5">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" s="13">
+        <v>0.9728</v>
+      </c>
+      <c r="C28" s="5">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29" s="13">
+        <v>0.48026666666666668</v>
+      </c>
+      <c r="C29" s="5">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" s="13">
+        <v>0.40079999999999999</v>
+      </c>
+      <c r="C30" s="5">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" s="13">
+        <v>0.30006666666666665</v>
+      </c>
+      <c r="C31" s="5">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B32" s="13">
+        <v>0.33893333333333331</v>
+      </c>
+      <c r="C32" s="5">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B33" s="13">
+        <v>0.41333333333333333</v>
+      </c>
+      <c r="C33" s="5">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B34" s="13">
+        <v>0.45400000000000001</v>
+      </c>
+      <c r="C34" s="5">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B35" s="13">
+        <v>0.45440000000000003</v>
+      </c>
+      <c r="C35" s="5">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" s="13">
+        <v>0.49453333333333332</v>
+      </c>
+      <c r="C36" s="5">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B37" s="13">
+        <v>0.71706666666666663</v>
+      </c>
+      <c r="C37" s="5">
+        <v>2014</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="12.5" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="14">
+        <v>2006</v>
+      </c>
+      <c r="C1" s="14">
+        <v>2007</v>
+      </c>
+      <c r="D1" s="14">
+        <v>2008</v>
+      </c>
+      <c r="E1" s="14">
+        <v>2009</v>
+      </c>
+      <c r="F1" s="14">
+        <v>2010</v>
+      </c>
+      <c r="G1" s="14">
+        <v>2011</v>
+      </c>
+      <c r="H1" s="14">
+        <v>2012</v>
+      </c>
+      <c r="I1" s="14">
+        <v>2013</v>
+      </c>
+      <c r="J1" s="14">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="15">
+        <f xml:space="preserve"> 23/115</f>
+        <v>0.2</v>
+      </c>
+      <c r="C2" s="15">
+        <f xml:space="preserve"> 31/128</f>
+        <v>0.2421875</v>
+      </c>
+      <c r="D2" s="15">
+        <f xml:space="preserve"> 27/130</f>
+        <v>0.2076923076923077</v>
+      </c>
+      <c r="E2" s="15">
+        <f xml:space="preserve"> 31/134</f>
+        <v>0.23134328358208955</v>
+      </c>
+      <c r="F2" s="15">
+        <f xml:space="preserve"> 19/134</f>
+        <v>0.1417910447761194</v>
+      </c>
+      <c r="G2" s="15">
+        <f xml:space="preserve"> 17/135</f>
+        <v>0.12592592592592591</v>
+      </c>
+      <c r="H2" s="15">
+        <f xml:space="preserve"> 22/135</f>
+        <v>0.16296296296296298</v>
+      </c>
+      <c r="I2" s="15">
+        <f xml:space="preserve"> 23/136</f>
+        <v>0.16911764705882354</v>
+      </c>
+      <c r="J2" s="15">
+        <f xml:space="preserve"> 20/142</f>
+        <v>0.14084507042253522</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="14">
+        <v>298.2</v>
+      </c>
+      <c r="C3" s="14">
+        <v>296.41000000000003</v>
+      </c>
+      <c r="D3" s="14">
+        <v>301.62</v>
+      </c>
+      <c r="E3" s="14">
+        <v>301.62</v>
+      </c>
+      <c r="F3" s="14">
+        <v>304.06</v>
+      </c>
+      <c r="G3" s="14">
+        <v>309.70999999999998</v>
+      </c>
+      <c r="H3" s="14">
+        <v>311.58999999999997</v>
+      </c>
+      <c r="I3" s="14">
+        <v>311.58999999999997</v>
+      </c>
+      <c r="J3" s="14">
+        <v>316.63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="14">
+        <v>12485.73</v>
+      </c>
+      <c r="C4" s="14">
+        <v>11046.43</v>
+      </c>
+      <c r="D4" s="14">
+        <v>11314.68</v>
+      </c>
+      <c r="E4" s="14">
+        <v>11490.5</v>
+      </c>
+      <c r="F4" s="14">
+        <v>11513.87</v>
+      </c>
+      <c r="G4" s="14">
+        <v>11681.22</v>
+      </c>
+      <c r="H4" s="14">
+        <v>11597.86</v>
+      </c>
+      <c r="I4" s="14">
+        <v>11744.22</v>
+      </c>
+      <c r="J4" s="14">
+        <v>14498.62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="14">
+        <v>41399</v>
+      </c>
+      <c r="C5" s="14">
+        <v>37267</v>
+      </c>
+      <c r="D5" s="14">
+        <v>42610</v>
+      </c>
+      <c r="E5" s="14">
+        <v>43055</v>
+      </c>
+      <c r="F5" s="14">
+        <v>42107</v>
+      </c>
+      <c r="G5" s="14">
+        <v>42551</v>
+      </c>
+      <c r="H5" s="14">
+        <v>42297</v>
+      </c>
+      <c r="I5" s="14">
+        <v>42486</v>
+      </c>
+      <c r="J5" s="14">
+        <v>50866</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="14">
+        <v>0.70399999999999996</v>
+      </c>
+      <c r="C6" s="14">
+        <v>0.7</v>
+      </c>
+      <c r="D6" s="14">
+        <v>0.71799999999999997</v>
+      </c>
+      <c r="E6" s="14">
+        <v>0.71699999999999997</v>
+      </c>
+      <c r="F6" s="14">
+        <v>0.74099999999999999</v>
+      </c>
+      <c r="G6" s="14">
+        <v>0.74099999999999999</v>
+      </c>
+      <c r="H6" s="14">
+        <v>0.73699999999999999</v>
+      </c>
+      <c r="I6" s="14">
+        <v>0.73899999999999999</v>
+      </c>
+      <c r="J6" s="14">
+        <v>0.746</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="14">
+        <v>0.75900000000000001</v>
+      </c>
+      <c r="C7" s="14">
+        <v>0.73799999999999999</v>
+      </c>
+      <c r="D7" s="14">
+        <v>0.752</v>
+      </c>
+      <c r="E7" s="14">
+        <v>0.75</v>
+      </c>
+      <c r="F7" s="14">
+        <v>0.79</v>
+      </c>
+      <c r="G7" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="H7" s="14">
+        <v>0.81399999999999995</v>
+      </c>
+      <c r="I7" s="14">
+        <v>0.81799999999999995</v>
+      </c>
+      <c r="J7" s="14">
+        <v>0.82799999999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="14">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="C8" s="14">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="D8" s="14">
+        <v>1</v>
+      </c>
+      <c r="E8" s="14">
+        <v>1</v>
+      </c>
+      <c r="F8" s="14">
+        <v>1</v>
+      </c>
+      <c r="G8" s="14">
+        <v>1</v>
+      </c>
+      <c r="H8" s="14">
+        <v>1</v>
+      </c>
+      <c r="I8" s="14">
+        <v>1</v>
+      </c>
+      <c r="J8" s="14">
+        <v>0.998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="14">
+        <v>0.98</v>
+      </c>
+      <c r="C9" s="14">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="D9" s="14">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="E9" s="14">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="F9" s="14">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="G9" s="14">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="H9" s="14">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="I9" s="14">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="J9" s="14">
+        <v>0.97499999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="14">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="C10" s="14">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="D10" s="14">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E10" s="14">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F10" s="14">
+        <v>0.186</v>
+      </c>
+      <c r="G10" s="14">
+        <v>0.186</v>
+      </c>
+      <c r="H10" s="14">
+        <v>0.156</v>
+      </c>
+      <c r="I10" s="14">
+        <v>0.159</v>
+      </c>
+      <c r="J10" s="14">
+        <v>0.185</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="14">
+        <v>26</v>
+      </c>
+      <c r="C11" s="14">
+        <v>26</v>
+      </c>
+      <c r="D11" s="14">
+        <v>26</v>
+      </c>
+      <c r="E11" s="14">
+        <v>26</v>
+      </c>
+      <c r="F11" s="14">
+        <v>26</v>
+      </c>
+      <c r="G11" s="14">
+        <v>26</v>
+      </c>
+      <c r="H11" s="14">
+        <v>26</v>
+      </c>
+      <c r="I11" s="14">
+        <v>26</v>
+      </c>
+      <c r="J11" s="14">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
